--- a/wwwroot/Uploads/Exam.xlsx
+++ b/wwwroot/Uploads/Exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB679B15-B38B-4FAC-800D-4715D6130D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F27F41-59D1-4C65-8658-CAA6D0E2E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2602E863-7A7F-49BD-A06E-C2C9B617D2A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Question No</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD1CFC8-4EFE-4894-80CA-EB0346C9D2D4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,75 +550,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
